--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Clcf1-Crlf1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Clcf1-Crlf1.xlsx
@@ -543,46 +543,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>1.431948666666667</v>
+        <v>1.625602666666667</v>
       </c>
       <c r="H2">
-        <v>4.295846000000001</v>
+        <v>4.876808</v>
       </c>
       <c r="I2">
-        <v>0.07759125567219007</v>
+        <v>0.08794732633208746</v>
       </c>
       <c r="J2">
-        <v>0.07759125567219007</v>
+        <v>0.08794732633208747</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.2646386666666666</v>
+        <v>0.05903766666666666</v>
       </c>
       <c r="N2">
-        <v>0.793916</v>
+        <v>0.177113</v>
       </c>
       <c r="O2">
-        <v>0.03273099457589211</v>
+        <v>0.01178879857463852</v>
       </c>
       <c r="P2">
-        <v>0.03273099457589212</v>
+        <v>0.01178879857463852</v>
       </c>
       <c r="Q2">
-        <v>0.3789489858817778</v>
+        <v>0.09597178836711111</v>
       </c>
       <c r="R2">
-        <v>3.410540872936001</v>
+        <v>0.863746095304</v>
       </c>
       <c r="S2">
-        <v>0.002539638968543111</v>
+        <v>0.001036793315306981</v>
       </c>
       <c r="T2">
-        <v>0.002539638968543111</v>
+        <v>0.001036793315306981</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>1.431948666666667</v>
+        <v>1.625602666666667</v>
       </c>
       <c r="H3">
-        <v>4.295846000000001</v>
+        <v>4.876808</v>
       </c>
       <c r="I3">
-        <v>0.07759125567219007</v>
+        <v>0.08794732633208746</v>
       </c>
       <c r="J3">
-        <v>0.07759125567219007</v>
+        <v>0.08794732633208747</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,28 +623,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>3.694492333333334</v>
+        <v>3.694492333333333</v>
       </c>
       <c r="N3">
         <v>11.083477</v>
       </c>
       <c r="O3">
-        <v>0.4569415726210646</v>
+        <v>0.7377260723924206</v>
       </c>
       <c r="P3">
-        <v>0.4569415726210646</v>
+        <v>0.7377260723924207</v>
       </c>
       <c r="Q3">
-        <v>5.290323370726891</v>
+        <v>6.005776589046222</v>
       </c>
       <c r="R3">
-        <v>47.61291033654202</v>
+        <v>54.05198930141601</v>
       </c>
       <c r="S3">
-        <v>0.03545467038849363</v>
+        <v>0.0648810356323854</v>
       </c>
       <c r="T3">
-        <v>0.03545467038849363</v>
+        <v>0.06488103563238541</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>1.431948666666667</v>
+        <v>1.625602666666667</v>
       </c>
       <c r="H4">
-        <v>4.295846000000001</v>
+        <v>4.876808</v>
       </c>
       <c r="I4">
-        <v>0.07759125567219007</v>
+        <v>0.08794732633208746</v>
       </c>
       <c r="J4">
-        <v>0.07759125567219007</v>
+        <v>0.08794732633208747</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.929004</v>
+        <v>1.193695333333333</v>
       </c>
       <c r="N4">
-        <v>11.787012</v>
+        <v>3.581086</v>
       </c>
       <c r="O4">
-        <v>0.4859464047052526</v>
+        <v>0.2383602645342688</v>
       </c>
       <c r="P4">
-        <v>0.4859464047052526</v>
+        <v>0.2383602645342688</v>
       </c>
       <c r="Q4">
-        <v>5.626132039128001</v>
+        <v>1.940474317054222</v>
       </c>
       <c r="R4">
-        <v>50.63518835215201</v>
+        <v>17.464268853488</v>
       </c>
       <c r="S4">
-        <v>0.0377051917304668</v>
+        <v>0.02096314796959803</v>
       </c>
       <c r="T4">
-        <v>0.0377051917304668</v>
+        <v>0.02096314796959804</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,46 +729,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>1.431948666666667</v>
+        <v>1.625602666666667</v>
       </c>
       <c r="H5">
-        <v>4.295846000000001</v>
+        <v>4.876808</v>
       </c>
       <c r="I5">
-        <v>0.07759125567219007</v>
+        <v>0.08794732633208746</v>
       </c>
       <c r="J5">
-        <v>0.07759125567219007</v>
+        <v>0.08794732633208747</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.197127</v>
+        <v>0.06072066666666667</v>
       </c>
       <c r="N5">
-        <v>0.5913809999999999</v>
+        <v>0.182162</v>
       </c>
       <c r="O5">
-        <v>0.02438102809779077</v>
+        <v>0.01212486449867204</v>
       </c>
       <c r="P5">
-        <v>0.02438102809779077</v>
+        <v>0.01212486449867204</v>
       </c>
       <c r="Q5">
-        <v>0.282275744814</v>
+        <v>0.09870767765511111</v>
       </c>
       <c r="R5">
-        <v>2.540481703326</v>
+        <v>0.888369098896</v>
       </c>
       <c r="S5">
-        <v>0.001891754584686533</v>
+        <v>0.001066349414797052</v>
       </c>
       <c r="T5">
-        <v>0.001891754584686533</v>
+        <v>0.001066349414797052</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -797,40 +797,40 @@
         <v>15.697404</v>
       </c>
       <c r="I6">
-        <v>0.2835253608145308</v>
+        <v>0.2830836711542908</v>
       </c>
       <c r="J6">
-        <v>0.2835253608145307</v>
+        <v>0.2830836711542908</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.2646386666666666</v>
+        <v>0.05903766666666666</v>
       </c>
       <c r="N6">
-        <v>0.793916</v>
+        <v>0.177113</v>
       </c>
       <c r="O6">
-        <v>0.03273099457589211</v>
+        <v>0.01178879857463852</v>
       </c>
       <c r="P6">
-        <v>0.03273099457589212</v>
+        <v>0.01178879857463852</v>
       </c>
       <c r="Q6">
-        <v>1.384713354896</v>
+        <v>0.3089127016279999</v>
       </c>
       <c r="R6">
-        <v>12.462420194064</v>
+        <v>2.780214314652</v>
       </c>
       <c r="S6">
-        <v>0.009280067046948261</v>
+        <v>0.003337216379007142</v>
       </c>
       <c r="T6">
-        <v>0.009280067046948261</v>
+        <v>0.003337216379007143</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -859,10 +859,10 @@
         <v>15.697404</v>
       </c>
       <c r="I7">
-        <v>0.2835253608145308</v>
+        <v>0.2830836711542908</v>
       </c>
       <c r="J7">
-        <v>0.2835253608145307</v>
+        <v>0.2830836711542908</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,16 +871,16 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.694492333333334</v>
+        <v>3.694492333333333</v>
       </c>
       <c r="N7">
         <v>11.083477</v>
       </c>
       <c r="O7">
-        <v>0.4569415726210646</v>
+        <v>0.7377260723924206</v>
       </c>
       <c r="P7">
-        <v>0.4569415726210646</v>
+        <v>0.7377260723924207</v>
       </c>
       <c r="Q7">
         <v>19.331312910412</v>
@@ -889,10 +889,10 @@
         <v>173.981816193708</v>
       </c>
       <c r="S7">
-        <v>0.1295545242485465</v>
+        <v>0.2088382048790826</v>
       </c>
       <c r="T7">
-        <v>0.1295545242485464</v>
+        <v>0.2088382048790826</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>15.697404</v>
       </c>
       <c r="I8">
-        <v>0.2835253608145308</v>
+        <v>0.2830836711542908</v>
       </c>
       <c r="J8">
-        <v>0.2835253608145307</v>
+        <v>0.2830836711542908</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.929004</v>
+        <v>1.193695333333333</v>
       </c>
       <c r="N8">
-        <v>11.787012</v>
+        <v>3.581086</v>
       </c>
       <c r="O8">
-        <v>0.4859464047052526</v>
+        <v>0.2383602645342688</v>
       </c>
       <c r="P8">
-        <v>0.4859464047052526</v>
+        <v>0.2383602645342688</v>
       </c>
       <c r="Q8">
-        <v>20.558387701872</v>
+        <v>6.245972633416</v>
       </c>
       <c r="R8">
-        <v>185.025489316848</v>
+        <v>56.21375370074399</v>
       </c>
       <c r="S8">
-        <v>0.1377781297305808</v>
+        <v>0.06747589874166872</v>
       </c>
       <c r="T8">
-        <v>0.1377781297305807</v>
+        <v>0.06747589874166872</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,40 +983,40 @@
         <v>15.697404</v>
       </c>
       <c r="I9">
-        <v>0.2835253608145308</v>
+        <v>0.2830836711542908</v>
       </c>
       <c r="J9">
-        <v>0.2835253608145307</v>
+        <v>0.2830836711542908</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.197127</v>
+        <v>0.06072066666666667</v>
       </c>
       <c r="N9">
-        <v>0.5913809999999999</v>
+        <v>0.182162</v>
       </c>
       <c r="O9">
-        <v>0.02438102809779077</v>
+        <v>0.01212486449867204</v>
       </c>
       <c r="P9">
-        <v>0.02438102809779077</v>
+        <v>0.01212486449867204</v>
       </c>
       <c r="Q9">
-        <v>1.031460719436</v>
+        <v>0.317718945272</v>
       </c>
       <c r="R9">
-        <v>9.283146474923999</v>
+        <v>2.859470507448</v>
       </c>
       <c r="S9">
-        <v>0.00691263978845534</v>
+        <v>0.003432351154532412</v>
       </c>
       <c r="T9">
-        <v>0.006912639788455339</v>
+        <v>0.003432351154532412</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1039,46 +1039,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.834573333333333</v>
+        <v>3.405616666666667</v>
       </c>
       <c r="H10">
-        <v>5.50372</v>
+        <v>10.21685</v>
       </c>
       <c r="I10">
-        <v>0.09940778735274632</v>
+        <v>0.1842485168651273</v>
       </c>
       <c r="J10">
-        <v>0.0994077873527463</v>
+        <v>0.1842485168651273</v>
       </c>
       <c r="K10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>0.2646386666666666</v>
+        <v>0.05903766666666666</v>
       </c>
       <c r="N10">
-        <v>0.793916</v>
+        <v>0.177113</v>
       </c>
       <c r="O10">
-        <v>0.03273099457589211</v>
+        <v>0.01178879857463852</v>
       </c>
       <c r="P10">
-        <v>0.03273099457589212</v>
+        <v>0.01178879857463852</v>
       </c>
       <c r="Q10">
-        <v>0.4854990408355555</v>
+        <v>0.2010596615611111</v>
       </c>
       <c r="R10">
-        <v>4.36949136752</v>
+        <v>1.80953695405</v>
       </c>
       <c r="S10">
-        <v>0.003253715748644176</v>
+        <v>0.002172068652998873</v>
       </c>
       <c r="T10">
-        <v>0.003253715748644177</v>
+        <v>0.002172068652998873</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1101,16 +1101,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.834573333333333</v>
+        <v>3.405616666666667</v>
       </c>
       <c r="H11">
-        <v>5.50372</v>
+        <v>10.21685</v>
       </c>
       <c r="I11">
-        <v>0.09940778735274632</v>
+        <v>0.1842485168651273</v>
       </c>
       <c r="J11">
-        <v>0.0994077873527463</v>
+        <v>0.1842485168651273</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>3.694492333333334</v>
+        <v>3.694492333333333</v>
       </c>
       <c r="N11">
         <v>11.083477</v>
       </c>
       <c r="O11">
-        <v>0.4569415726210646</v>
+        <v>0.7377260723924206</v>
       </c>
       <c r="P11">
-        <v>0.4569415726210646</v>
+        <v>0.7377260723924207</v>
       </c>
       <c r="Q11">
-        <v>6.777817114937779</v>
+        <v>12.58202466527222</v>
       </c>
       <c r="R11">
-        <v>61.00035403444002</v>
+        <v>113.23822198745</v>
       </c>
       <c r="S11">
-        <v>0.04542355068374428</v>
+        <v>0.135924934691039</v>
       </c>
       <c r="T11">
-        <v>0.04542355068374427</v>
+        <v>0.1359249346910391</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1163,16 +1163,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.834573333333333</v>
+        <v>3.405616666666667</v>
       </c>
       <c r="H12">
-        <v>5.50372</v>
+        <v>10.21685</v>
       </c>
       <c r="I12">
-        <v>0.09940778735274632</v>
+        <v>0.1842485168651273</v>
       </c>
       <c r="J12">
-        <v>0.0994077873527463</v>
+        <v>0.1842485168651273</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.929004</v>
+        <v>1.193695333333333</v>
       </c>
       <c r="N12">
-        <v>11.787012</v>
+        <v>3.581086</v>
       </c>
       <c r="O12">
-        <v>0.4859464047052526</v>
+        <v>0.2383602645342688</v>
       </c>
       <c r="P12">
-        <v>0.4859464047052526</v>
+        <v>0.2383602645342688</v>
       </c>
       <c r="Q12">
-        <v>7.208045964960001</v>
+        <v>4.065268722122222</v>
       </c>
       <c r="R12">
-        <v>64.87241368464001</v>
+        <v>36.5874184991</v>
       </c>
       <c r="S12">
-        <v>0.04830685686377136</v>
+        <v>0.04391752522001842</v>
       </c>
       <c r="T12">
-        <v>0.04830685686377135</v>
+        <v>0.04391752522001843</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1225,46 +1225,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.834573333333333</v>
+        <v>3.405616666666667</v>
       </c>
       <c r="H13">
-        <v>5.50372</v>
+        <v>10.21685</v>
       </c>
       <c r="I13">
-        <v>0.09940778735274632</v>
+        <v>0.1842485168651273</v>
       </c>
       <c r="J13">
-        <v>0.0994077873527463</v>
+        <v>0.1842485168651273</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L13">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>0.197127</v>
+        <v>0.06072066666666667</v>
       </c>
       <c r="N13">
-        <v>0.5913809999999999</v>
+        <v>0.182162</v>
       </c>
       <c r="O13">
-        <v>0.02438102809779077</v>
+        <v>0.01212486449867204</v>
       </c>
       <c r="P13">
-        <v>0.02438102809779077</v>
+        <v>0.01212486449867204</v>
       </c>
       <c r="Q13">
-        <v>0.36164393748</v>
+        <v>0.2067913144111111</v>
       </c>
       <c r="R13">
-        <v>3.25479543732</v>
+        <v>1.8611218297</v>
       </c>
       <c r="S13">
-        <v>0.002423664056586517</v>
+        <v>0.002233988301070959</v>
       </c>
       <c r="T13">
-        <v>0.002423664056586517</v>
+        <v>0.00223398830107096</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,46 +1287,46 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>6.253622</v>
+        <v>5.048711333333333</v>
       </c>
       <c r="H14">
-        <v>18.760866</v>
+        <v>15.146134</v>
       </c>
       <c r="I14">
-        <v>0.3388573869821445</v>
+        <v>0.273142184307343</v>
       </c>
       <c r="J14">
-        <v>0.3388573869821445</v>
+        <v>0.273142184307343</v>
       </c>
       <c r="K14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M14">
-        <v>0.2646386666666666</v>
+        <v>0.05903766666666666</v>
       </c>
       <c r="N14">
-        <v>0.793916</v>
+        <v>0.177113</v>
       </c>
       <c r="O14">
-        <v>0.03273099457589211</v>
+        <v>0.01178879857463852</v>
       </c>
       <c r="P14">
-        <v>0.03273099457589212</v>
+        <v>0.01178879857463852</v>
       </c>
       <c r="Q14">
-        <v>1.654950187917333</v>
+        <v>0.2980641367935555</v>
       </c>
       <c r="R14">
-        <v>14.894551691256</v>
+        <v>2.682577231142</v>
       </c>
       <c r="S14">
-        <v>0.01109113929531354</v>
+        <v>0.003220018193036056</v>
       </c>
       <c r="T14">
-        <v>0.01109113929531355</v>
+        <v>0.003220018193036057</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>6.253622</v>
+        <v>5.048711333333333</v>
       </c>
       <c r="H15">
-        <v>18.760866</v>
+        <v>15.146134</v>
       </c>
       <c r="I15">
-        <v>0.3388573869821445</v>
+        <v>0.273142184307343</v>
       </c>
       <c r="J15">
-        <v>0.3388573869821445</v>
+        <v>0.273142184307343</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,28 +1367,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>3.694492333333334</v>
+        <v>3.694492333333333</v>
       </c>
       <c r="N15">
         <v>11.083477</v>
       </c>
       <c r="O15">
-        <v>0.4569415726210646</v>
+        <v>0.7377260723924206</v>
       </c>
       <c r="P15">
-        <v>0.4569415726210646</v>
+        <v>0.7377260723924207</v>
       </c>
       <c r="Q15">
-        <v>23.10395853456467</v>
+        <v>18.65242531421311</v>
       </c>
       <c r="R15">
-        <v>207.935626811082</v>
+        <v>167.871827827918</v>
       </c>
       <c r="S15">
-        <v>0.1548380273018858</v>
+        <v>0.2015041108337428</v>
       </c>
       <c r="T15">
-        <v>0.1548380273018858</v>
+        <v>0.2015041108337429</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>6.253622</v>
+        <v>5.048711333333333</v>
       </c>
       <c r="H16">
-        <v>18.760866</v>
+        <v>15.146134</v>
       </c>
       <c r="I16">
-        <v>0.3388573869821445</v>
+        <v>0.273142184307343</v>
       </c>
       <c r="J16">
-        <v>0.3388573869821445</v>
+        <v>0.273142184307343</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>3.929004</v>
+        <v>1.193695333333333</v>
       </c>
       <c r="N16">
-        <v>11.787012</v>
+        <v>3.581086</v>
       </c>
       <c r="O16">
-        <v>0.4859464047052526</v>
+        <v>0.2383602645342688</v>
       </c>
       <c r="P16">
-        <v>0.4859464047052526</v>
+        <v>0.2383602645342688</v>
       </c>
       <c r="Q16">
-        <v>24.570505852488</v>
+        <v>6.026623157947111</v>
       </c>
       <c r="R16">
-        <v>221.134552672392</v>
+        <v>54.239608421524</v>
       </c>
       <c r="S16">
-        <v>0.1646665289117896</v>
+        <v>0.06510624330696629</v>
       </c>
       <c r="T16">
-        <v>0.1646665289117896</v>
+        <v>0.06510624330696629</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,46 +1473,46 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>6.253622</v>
+        <v>5.048711333333333</v>
       </c>
       <c r="H17">
-        <v>18.760866</v>
+        <v>15.146134</v>
       </c>
       <c r="I17">
-        <v>0.3388573869821445</v>
+        <v>0.273142184307343</v>
       </c>
       <c r="J17">
-        <v>0.3388573869821445</v>
+        <v>0.273142184307343</v>
       </c>
       <c r="K17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L17">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M17">
-        <v>0.197127</v>
+        <v>0.06072066666666667</v>
       </c>
       <c r="N17">
-        <v>0.5913809999999999</v>
+        <v>0.182162</v>
       </c>
       <c r="O17">
-        <v>0.02438102809779077</v>
+        <v>0.01212486449867204</v>
       </c>
       <c r="P17">
-        <v>0.02438102809779077</v>
+        <v>0.01212486449867204</v>
       </c>
       <c r="Q17">
-        <v>1.232757743994</v>
+        <v>0.3065611179675555</v>
       </c>
       <c r="R17">
-        <v>11.094819695946</v>
+        <v>2.759050061708</v>
       </c>
       <c r="S17">
-        <v>0.008261691473155624</v>
+        <v>0.00331181197359784</v>
       </c>
       <c r="T17">
-        <v>0.008261691473155624</v>
+        <v>0.00331181197359784</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>20</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F18">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>1.326571</v>
+        <v>2.689098</v>
       </c>
       <c r="H18">
-        <v>3.979713</v>
+        <v>8.067294</v>
       </c>
       <c r="I18">
-        <v>0.07188128459096031</v>
+        <v>0.145483877576253</v>
       </c>
       <c r="J18">
-        <v>0.07188128459096031</v>
+        <v>0.145483877576253</v>
       </c>
       <c r="K18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L18">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M18">
-        <v>0.2646386666666666</v>
+        <v>0.05903766666666666</v>
       </c>
       <c r="N18">
-        <v>0.793916</v>
+        <v>0.177113</v>
       </c>
       <c r="O18">
-        <v>0.03273099457589211</v>
+        <v>0.01178879857463852</v>
       </c>
       <c r="P18">
-        <v>0.03273099457589212</v>
+        <v>0.01178879857463852</v>
       </c>
       <c r="Q18">
-        <v>0.3510619806786667</v>
+        <v>0.158758071358</v>
       </c>
       <c r="R18">
-        <v>3.159557826108</v>
+        <v>1.428822642222</v>
       </c>
       <c r="S18">
-        <v>0.002352745936054879</v>
+        <v>0.001715080128603815</v>
       </c>
       <c r="T18">
-        <v>0.00235274593605488</v>
+        <v>0.001715080128603816</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,22 +1591,22 @@
         <v>21</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F19">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>1.326571</v>
+        <v>2.689098</v>
       </c>
       <c r="H19">
-        <v>3.979713</v>
+        <v>8.067294</v>
       </c>
       <c r="I19">
-        <v>0.07188128459096031</v>
+        <v>0.145483877576253</v>
       </c>
       <c r="J19">
-        <v>0.07188128459096031</v>
+        <v>0.145483877576253</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>3.694492333333334</v>
+        <v>3.694492333333333</v>
       </c>
       <c r="N19">
         <v>11.083477</v>
       </c>
       <c r="O19">
-        <v>0.4569415726210646</v>
+        <v>0.7377260723924206</v>
       </c>
       <c r="P19">
-        <v>0.4569415726210646</v>
+        <v>0.7377260723924207</v>
       </c>
       <c r="Q19">
-        <v>4.901006389122335</v>
+        <v>9.934851944582</v>
       </c>
       <c r="R19">
-        <v>44.10905750210101</v>
+        <v>89.41366750123801</v>
       </c>
       <c r="S19">
-        <v>0.03284554722301571</v>
+        <v>0.1073272496007489</v>
       </c>
       <c r="T19">
-        <v>0.03284554722301571</v>
+        <v>0.1073272496007489</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,22 +1653,22 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F20">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G20">
-        <v>1.326571</v>
+        <v>2.689098</v>
       </c>
       <c r="H20">
-        <v>3.979713</v>
+        <v>8.067294</v>
       </c>
       <c r="I20">
-        <v>0.07188128459096031</v>
+        <v>0.145483877576253</v>
       </c>
       <c r="J20">
-        <v>0.07188128459096031</v>
+        <v>0.145483877576253</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>3.929004</v>
+        <v>1.193695333333333</v>
       </c>
       <c r="N20">
-        <v>11.787012</v>
+        <v>3.581086</v>
       </c>
       <c r="O20">
-        <v>0.4859464047052526</v>
+        <v>0.2383602645342688</v>
       </c>
       <c r="P20">
-        <v>0.4859464047052526</v>
+        <v>0.2383602645342688</v>
       </c>
       <c r="Q20">
-        <v>5.212102765284001</v>
+        <v>3.209963733476</v>
       </c>
       <c r="R20">
-        <v>46.908924887556</v>
+        <v>28.889673601284</v>
       </c>
       <c r="S20">
-        <v>0.03493045181257224</v>
+        <v>0.03467757554454683</v>
       </c>
       <c r="T20">
-        <v>0.03493045181257224</v>
+        <v>0.03467757554454685</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>25</v>
       </c>
       <c r="E21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F21">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G21">
-        <v>1.326571</v>
+        <v>2.689098</v>
       </c>
       <c r="H21">
-        <v>3.979713</v>
+        <v>8.067294</v>
       </c>
       <c r="I21">
-        <v>0.07188128459096031</v>
+        <v>0.145483877576253</v>
       </c>
       <c r="J21">
-        <v>0.07188128459096031</v>
+        <v>0.145483877576253</v>
       </c>
       <c r="K21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L21">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M21">
-        <v>0.197127</v>
+        <v>0.06072066666666667</v>
       </c>
       <c r="N21">
-        <v>0.5913809999999999</v>
+        <v>0.182162</v>
       </c>
       <c r="O21">
-        <v>0.02438102809779077</v>
+        <v>0.01212486449867204</v>
       </c>
       <c r="P21">
-        <v>0.02438102809779077</v>
+        <v>0.01212486449867204</v>
       </c>
       <c r="Q21">
-        <v>0.261502961517</v>
+        <v>0.163283823292</v>
       </c>
       <c r="R21">
-        <v>2.353526653653</v>
+        <v>1.469554409628</v>
       </c>
       <c r="S21">
-        <v>0.001752539619317498</v>
+        <v>0.001763972302353459</v>
       </c>
       <c r="T21">
-        <v>0.001752539619317498</v>
+        <v>0.00176397230235346</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G22">
-        <v>2.375843333333334</v>
+        <v>0.4823246666666667</v>
       </c>
       <c r="H22">
-        <v>7.12753</v>
+        <v>1.446974</v>
       </c>
       <c r="I22">
-        <v>0.1287369245874281</v>
+        <v>0.02609442376489825</v>
       </c>
       <c r="J22">
-        <v>0.1287369245874281</v>
+        <v>0.02609442376489825</v>
       </c>
       <c r="K22">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L22">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M22">
-        <v>0.2646386666666666</v>
+        <v>0.05903766666666666</v>
       </c>
       <c r="N22">
-        <v>0.793916</v>
+        <v>0.177113</v>
       </c>
       <c r="O22">
-        <v>0.03273099457589211</v>
+        <v>0.01178879857463852</v>
       </c>
       <c r="P22">
-        <v>0.03273099457589212</v>
+        <v>0.01178879857463852</v>
       </c>
       <c r="Q22">
-        <v>0.6287400119422222</v>
+        <v>0.02847532289577778</v>
       </c>
       <c r="R22">
-        <v>5.658660107479999</v>
+        <v>0.256277906062</v>
       </c>
       <c r="S22">
-        <v>0.004213687580388142</v>
+        <v>0.0003076219056856459</v>
       </c>
       <c r="T22">
-        <v>0.004213687580388142</v>
+        <v>0.000307621905685646</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,22 +1839,22 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G23">
-        <v>2.375843333333334</v>
+        <v>0.4823246666666667</v>
       </c>
       <c r="H23">
-        <v>7.12753</v>
+        <v>1.446974</v>
       </c>
       <c r="I23">
-        <v>0.1287369245874281</v>
+        <v>0.02609442376489825</v>
       </c>
       <c r="J23">
-        <v>0.1287369245874281</v>
+        <v>0.02609442376489825</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>3.694492333333334</v>
+        <v>3.694492333333333</v>
       </c>
       <c r="N23">
         <v>11.083477</v>
       </c>
       <c r="O23">
-        <v>0.4569415726210646</v>
+        <v>0.7377260723924206</v>
       </c>
       <c r="P23">
-        <v>0.4569415726210646</v>
+        <v>0.7377260723924207</v>
       </c>
       <c r="Q23">
-        <v>8.777534980201114</v>
+        <v>1.781944783177556</v>
       </c>
       <c r="R23">
-        <v>78.99781482181001</v>
+        <v>16.037503048598</v>
       </c>
       <c r="S23">
-        <v>0.05882525277537881</v>
+        <v>0.01925053675542183</v>
       </c>
       <c r="T23">
-        <v>0.0588252527753788</v>
+        <v>0.01925053675542183</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,22 +1901,22 @@
         <v>23</v>
       </c>
       <c r="E24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G24">
-        <v>2.375843333333334</v>
+        <v>0.4823246666666667</v>
       </c>
       <c r="H24">
-        <v>7.12753</v>
+        <v>1.446974</v>
       </c>
       <c r="I24">
-        <v>0.1287369245874281</v>
+        <v>0.02609442376489825</v>
       </c>
       <c r="J24">
-        <v>0.1287369245874281</v>
+        <v>0.02609442376489825</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>3.929004</v>
+        <v>1.193695333333333</v>
       </c>
       <c r="N24">
-        <v>11.787012</v>
+        <v>3.581086</v>
       </c>
       <c r="O24">
-        <v>0.4859464047052526</v>
+        <v>0.2383602645342688</v>
       </c>
       <c r="P24">
-        <v>0.4859464047052526</v>
+        <v>0.2383602645342688</v>
       </c>
       <c r="Q24">
-        <v>9.334697960040002</v>
+        <v>0.5757487037515556</v>
       </c>
       <c r="R24">
-        <v>84.01228164036</v>
+        <v>5.181738333764</v>
       </c>
       <c r="S24">
-        <v>0.06255924565607195</v>
+        <v>0.006219873751470457</v>
       </c>
       <c r="T24">
-        <v>0.06255924565607193</v>
+        <v>0.006219873751470459</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G25">
-        <v>2.375843333333334</v>
+        <v>0.4823246666666667</v>
       </c>
       <c r="H25">
-        <v>7.12753</v>
+        <v>1.446974</v>
       </c>
       <c r="I25">
-        <v>0.1287369245874281</v>
+        <v>0.02609442376489825</v>
       </c>
       <c r="J25">
-        <v>0.1287369245874281</v>
+        <v>0.02609442376489825</v>
       </c>
       <c r="K25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L25">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M25">
-        <v>0.197127</v>
+        <v>0.06072066666666667</v>
       </c>
       <c r="N25">
-        <v>0.5913809999999999</v>
+        <v>0.182162</v>
       </c>
       <c r="O25">
-        <v>0.02438102809779077</v>
+        <v>0.01212486449867204</v>
       </c>
       <c r="P25">
-        <v>0.02438102809779077</v>
+        <v>0.01212486449867204</v>
       </c>
       <c r="Q25">
-        <v>0.46834286877</v>
+        <v>0.02928707530977778</v>
       </c>
       <c r="R25">
-        <v>4.21508581893</v>
+        <v>0.263583677788</v>
       </c>
       <c r="S25">
-        <v>0.003138738575589257</v>
+        <v>0.0003163913523203189</v>
       </c>
       <c r="T25">
-        <v>0.003138738575589256</v>
+        <v>0.0003163913523203189</v>
       </c>
     </row>
   </sheetData>
